--- a/results_final/sigma_HM.xlsx
+++ b/results_final/sigma_HM.xlsx
@@ -519,91 +519,91 @@
         <v>0.3905760977195454</v>
       </c>
       <c r="D2">
-        <v>0.3169239032848553</v>
+        <v>0.3169481961797442</v>
       </c>
       <c r="E2">
-        <v>0.2652303339206573</v>
+        <v>0.2652897032681845</v>
       </c>
       <c r="F2">
-        <v>0.2278784373612556</v>
+        <v>0.2279777554416172</v>
       </c>
       <c r="G2">
-        <v>0.2002114814147911</v>
+        <v>0.2003530869329344</v>
       </c>
       <c r="H2">
-        <v>0.1792792571658639</v>
+        <v>0.1794644781577655</v>
       </c>
       <c r="I2">
-        <v>0.1631523878455576</v>
+        <v>0.1633822241977545</v>
       </c>
       <c r="J2">
-        <v>0.1505327330434849</v>
+        <v>0.1508081499199175</v>
       </c>
       <c r="K2">
-        <v>0.1405243074933163</v>
+        <v>0.1408463467083192</v>
       </c>
       <c r="L2">
-        <v>0.1324943465999601</v>
+        <v>0.1328641532986936</v>
       </c>
       <c r="M2">
-        <v>0.1259866466949703</v>
+        <v>0.1264054579730104</v>
       </c>
       <c r="N2">
-        <v>0.120666113449651</v>
+        <v>0.1211352314861773</v>
       </c>
       <c r="O2">
-        <v>0.1162824421950684</v>
+        <v>0.1168032028291441</v>
       </c>
       <c r="P2">
-        <v>0.1126458145980147</v>
+        <v>0.1132195565490796</v>
       </c>
       <c r="Q2">
-        <v>0.1096103121557393</v>
+        <v>0.1102383492387687</v>
       </c>
       <c r="R2">
-        <v>0.1070623877607558</v>
+        <v>0.1077459850191101</v>
       </c>
       <c r="S2">
-        <v>0.1049127158549313</v>
+        <v>0.1056530698200904</v>
       </c>
       <c r="T2">
-        <v>0.1030903392433019</v>
+        <v>0.1038885621787486</v>
       </c>
       <c r="U2">
-        <v>0.1015384028102915</v>
+        <v>0.1023955106302624</v>
       </c>
       <c r="V2">
-        <v>0.1002110006170624</v>
+        <v>0.1011279041002295</v>
       </c>
       <c r="W2">
-        <v>0.09907081546807546</v>
+        <v>0.1000483143656587</v>
       </c>
       <c r="X2">
-        <v>0.09808733024347357</v>
+        <v>0.0991261098871449</v>
       </c>
       <c r="Y2">
-        <v>0.09723545710160081</v>
+        <v>0.09833608713639529</v>
       </c>
       <c r="Z2">
-        <v>0.09649447583198782</v>
+        <v>0.09765741072660467</v>
       </c>
       <c r="AA2">
-        <v>0.0958472035962783</v>
+        <v>0.09707278461390018</v>
       </c>
       <c r="AB2">
-        <v>0.09527933977518394</v>
+        <v>0.0965677981200642</v>
       </c>
       <c r="AC2">
-        <v>0.09477894472206136</v>
+        <v>0.09613040560925074</v>
       </c>
       <c r="AD2">
-        <v>0.0943360219338269</v>
+        <v>0.09575050936062271</v>
       </c>
       <c r="AE2">
-        <v>0.09394218083773435</v>
+        <v>0.09541962286512078</v>
       </c>
       <c r="AF2">
-        <v>0.09359036296858943</v>
+        <v>0.09513059734867745</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -614,94 +614,94 @@
         <v>0.3342371379733693</v>
       </c>
       <c r="C3">
-        <v>0.260088410370062</v>
+        <v>0.2600884103700621</v>
       </c>
       <c r="D3">
-        <v>0.2095747326384724</v>
+        <v>0.2096703367482015</v>
       </c>
       <c r="E3">
-        <v>0.1739688027260293</v>
+        <v>0.1742006393502067</v>
       </c>
       <c r="F3">
-        <v>0.1481207031852605</v>
+        <v>0.1485052421273107</v>
       </c>
       <c r="G3">
-        <v>0.1288705991709107</v>
+        <v>0.1294138949469459</v>
       </c>
       <c r="H3">
-        <v>0.1142113087227301</v>
+        <v>0.1149152085790688</v>
       </c>
       <c r="I3">
-        <v>0.1028277972905556</v>
+        <v>0.1036927278094882</v>
       </c>
       <c r="J3">
-        <v>0.09383434213204608</v>
+        <v>0.09486051223944333</v>
       </c>
       <c r="K3">
-        <v>0.08661939976239207</v>
+        <v>0.08780726529948811</v>
       </c>
       <c r="L3">
-        <v>0.08075122094942423</v>
+        <v>0.08210160834624658</v>
       </c>
       <c r="M3">
-        <v>0.07591882073239305</v>
+        <v>0.07743289964960701</v>
       </c>
       <c r="N3">
-        <v>0.0718941209425161</v>
+        <v>0.07357331710518443</v>
       </c>
       <c r="O3">
-        <v>0.06850710683645435</v>
+        <v>0.07035299854933039</v>
       </c>
       <c r="P3">
-        <v>0.0656291764486491</v>
+        <v>0.0676433948798385</v>
       </c>
       <c r="Q3">
-        <v>0.06316176192480874</v>
+        <v>0.06534590369772535</v>
       </c>
       <c r="R3">
-        <v>0.06102841273061389</v>
+        <v>0.06338396768455214</v>
       </c>
       <c r="S3">
-        <v>0.05916919511714561</v>
+        <v>0.0616974893545278</v>
       </c>
       <c r="T3">
-        <v>0.05753666854903791</v>
+        <v>0.06023882162617734</v>
       </c>
       <c r="U3">
-        <v>0.05609295332910414</v>
+        <v>0.05896984793408858</v>
       </c>
       <c r="V3">
-        <v>0.05480756483285875</v>
+        <v>0.05785982715623256</v>
       </c>
       <c r="W3">
-        <v>0.05365579403564125</v>
+        <v>0.0568837830861004</v>
       </c>
       <c r="X3">
-        <v>0.05261748257195815</v>
+        <v>0.05602128682203688</v>
       </c>
       <c r="Y3">
-        <v>0.05167608633196217</v>
+        <v>0.05525552624698292</v>
       </c>
       <c r="Z3">
-        <v>0.05081795258873691</v>
+        <v>0.05457258776996132</v>
       </c>
       <c r="AA3">
-        <v>0.05003175691644205</v>
+        <v>0.05396089676300506</v>
       </c>
       <c r="AB3">
-        <v>0.04930806093983196</v>
+        <v>0.05341077789695328</v>
       </c>
       <c r="AC3">
-        <v>0.04863896235265344</v>
+        <v>0.05291410696264654</v>
       </c>
       <c r="AD3">
-        <v>0.04801781604032086</v>
+        <v>0.05246403314683031</v>
       </c>
       <c r="AE3">
-        <v>0.04743901046422266</v>
+        <v>0.05205475603875828</v>
       </c>
       <c r="AF3">
-        <v>0.04689778733403904</v>
+        <v>0.05168134549770036</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -715,91 +715,91 @@
         <v>0.3152491828189724</v>
       </c>
       <c r="D4">
-        <v>0.2921808352895818</v>
+        <v>0.2922942517444524</v>
       </c>
       <c r="E4">
-        <v>0.2732869341156413</v>
+        <v>0.2735968100781027</v>
       </c>
       <c r="F4">
-        <v>0.2576258376191343</v>
+        <v>0.2581948628054055</v>
       </c>
       <c r="G4">
-        <v>0.2445014313923409</v>
+        <v>0.2453782890436516</v>
       </c>
       <c r="H4">
-        <v>0.2333911098210704</v>
+        <v>0.234614566183088</v>
       </c>
       <c r="I4">
-        <v>0.2238970378544333</v>
+        <v>0.2254986193277019</v>
       </c>
       <c r="J4">
-        <v>0.2157125460265763</v>
+        <v>0.2177183190303753</v>
       </c>
       <c r="K4">
-        <v>0.2085985562617926</v>
+        <v>0.2110303296261643</v>
       </c>
       <c r="L4">
-        <v>0.2023667775485427</v>
+        <v>0.2052429292945248</v>
       </c>
       <c r="M4">
-        <v>0.1968675480874889</v>
+        <v>0.2002036057975479</v>
       </c>
       <c r="N4">
-        <v>0.1919809169526257</v>
+        <v>0.1957899753853071</v>
       </c>
       <c r="O4">
-        <v>0.1876100177520402</v>
+        <v>0.1919030483509202</v>
       </c>
       <c r="P4">
-        <v>0.1836760864135621</v>
+        <v>0.1884621746377233</v>
       </c>
       <c r="Q4">
-        <v>0.1801146737288718</v>
+        <v>0.1854012079066411</v>
       </c>
       <c r="R4">
-        <v>0.1768727367482481</v>
+        <v>0.1826655641002458</v>
       </c>
       <c r="S4">
-        <v>0.1739063840924555</v>
+        <v>0.180209944227451</v>
       </c>
       <c r="T4">
-        <v>0.1711791130768429</v>
+        <v>0.1779965557078924</v>
       </c>
       <c r="U4">
-        <v>0.1686604204730003</v>
+        <v>0.1759937117334227</v>
       </c>
       <c r="V4">
-        <v>0.1663246998130098</v>
+        <v>0.1741747199799517</v>
       </c>
       <c r="W4">
-        <v>0.164150360377655</v>
+        <v>0.1725169947753278</v>
       </c>
       <c r="X4">
-        <v>0.1621191190910176</v>
+        <v>0.1710013432718228</v>
       </c>
       <c r="Y4">
-        <v>0.1602154282939831</v>
+        <v>0.169611388165745</v>
       </c>
       <c r="Z4">
-        <v>0.1584260110400881</v>
+        <v>0.168333098341158</v>
       </c>
       <c r="AA4">
-        <v>0.1567394820168393</v>
+        <v>0.1671544053830032</v>
       </c>
       <c r="AB4">
-        <v>0.1551460370520433</v>
+        <v>0.1660648888323384</v>
       </c>
       <c r="AC4">
-        <v>0.1536371978476677</v>
+        <v>0.1650555167846942</v>
       </c>
       <c r="AD4">
-        <v>0.1522056014001409</v>
+        <v>0.1641184312767701</v>
       </c>
       <c r="AE4">
-        <v>0.1508448257367273</v>
+        <v>0.1632467700935179</v>
       </c>
       <c r="AF4">
-        <v>0.149549245283236</v>
+        <v>0.1624345183215921</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -813,91 +813,91 @@
         <v>0.4783134654375992</v>
       </c>
       <c r="D5">
-        <v>0.2861092839182326</v>
+        <v>0.2861407749163173</v>
       </c>
       <c r="E5">
-        <v>0.1847354336484303</v>
+        <v>0.1847948127222406</v>
       </c>
       <c r="F5">
-        <v>0.1272904665382636</v>
+        <v>0.1273701347659041</v>
       </c>
       <c r="G5">
-        <v>0.09269214967633728</v>
+        <v>0.09278630047969376</v>
       </c>
       <c r="H5">
-        <v>0.07074554139703881</v>
+        <v>0.07085051496086148</v>
       </c>
       <c r="I5">
-        <v>0.05619665931592432</v>
+        <v>0.05631036757615869</v>
       </c>
       <c r="J5">
-        <v>0.04618291280690876</v>
+        <v>0.04630428996178149</v>
       </c>
       <c r="K5">
-        <v>0.03906652632502847</v>
+        <v>0.03919514434433567</v>
       </c>
       <c r="L5">
-        <v>0.0338692032674016</v>
+        <v>0.03400502501731732</v>
       </c>
       <c r="M5">
-        <v>0.02998383013940378</v>
+        <v>0.03012705494694655</v>
       </c>
       <c r="N5">
-        <v>0.02702062754457415</v>
+        <v>0.02717159479534326</v>
       </c>
       <c r="O5">
-        <v>0.0247216448307987</v>
+        <v>0.02488077321224487</v>
       </c>
       <c r="P5">
-        <v>0.02291147327918272</v>
+        <v>0.02307922187035774</v>
       </c>
       <c r="Q5">
-        <v>0.02146788716376989</v>
+        <v>0.02164473002813093</v>
       </c>
       <c r="R5">
-        <v>0.02030382775013756</v>
+        <v>0.02049023700749237</v>
       </c>
       <c r="S5">
-        <v>0.01935604545614537</v>
+        <v>0.01955247979813037</v>
       </c>
       <c r="T5">
-        <v>0.01857776122441023</v>
+        <v>0.01878465802409717</v>
       </c>
       <c r="U5">
-        <v>0.01793381687308935</v>
+        <v>0.01815158674780144</v>
       </c>
       <c r="V5">
-        <v>0.01739740326024978</v>
+        <v>0.01762642637118176</v>
       </c>
       <c r="W5">
-        <v>0.01694781036554982</v>
+        <v>0.01718843399315952</v>
       </c>
       <c r="X5">
-        <v>0.01656885247685521</v>
+        <v>0.01682138956534081</v>
       </c>
       <c r="Y5">
-        <v>0.01624774761240048</v>
+        <v>0.01651247607048085</v>
       </c>
       <c r="Z5">
-        <v>0.01597430781659062</v>
+        <v>0.01625147041957154</v>
       </c>
       <c r="AA5">
-        <v>0.01574034562274109</v>
+        <v>0.01603015039709017</v>
       </c>
       <c r="AB5">
-        <v>0.01553923308573594</v>
+        <v>0.01584185408089727</v>
       </c>
       <c r="AC5">
-        <v>0.01536557002086946</v>
+        <v>0.01568114838909694</v>
       </c>
       <c r="AD5">
-        <v>0.0152149314548167</v>
+        <v>0.01554357677152235</v>
       </c>
       <c r="AE5">
-        <v>0.01508367326053195</v>
+        <v>0.01542546502685836</v>
       </c>
       <c r="AF5">
-        <v>0.0149687810441099</v>
+        <v>0.01532377032117736</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -908,94 +908,94 @@
         <v>0.7939057911269859</v>
       </c>
       <c r="C6">
-        <v>0.4617406340821548</v>
+        <v>0.4617406340821549</v>
       </c>
       <c r="D6">
-        <v>0.2908099665282429</v>
+        <v>0.2908907293569348</v>
       </c>
       <c r="E6">
-        <v>0.1959913666032587</v>
+        <v>0.1961503448886155</v>
       </c>
       <c r="F6">
-        <v>0.1399231731607733</v>
+        <v>0.140144226581434</v>
       </c>
       <c r="G6">
-        <v>0.1049141498965551</v>
+        <v>0.1051832180785911</v>
       </c>
       <c r="H6">
-        <v>0.08201556037328987</v>
+        <v>0.08232294280713068</v>
       </c>
       <c r="I6">
-        <v>0.06643206750070255</v>
+        <v>0.06677172367992874</v>
       </c>
       <c r="J6">
-        <v>0.05546057205364284</v>
+        <v>0.0558290572352781</v>
       </c>
       <c r="K6">
-        <v>0.04750784232987047</v>
+        <v>0.04790344729335751</v>
       </c>
       <c r="L6">
-        <v>0.04159700234193604</v>
+        <v>0.04201914849806879</v>
       </c>
       <c r="M6">
-        <v>0.03710771198047914</v>
+        <v>0.03755654502541009</v>
       </c>
       <c r="N6">
-        <v>0.03363352790288986</v>
+        <v>0.03410964817466893</v>
       </c>
       <c r="O6">
-        <v>0.03090059676181179</v>
+        <v>0.03140487983056728</v>
       </c>
       <c r="P6">
-        <v>0.02871971349711793</v>
+        <v>0.02925318961789424</v>
       </c>
       <c r="Q6">
-        <v>0.02695717483353286</v>
+        <v>0.02752094692286325</v>
       </c>
       <c r="R6">
-        <v>0.02551656072744756</v>
+        <v>0.02611174786298335</v>
       </c>
       <c r="S6">
-        <v>0.0243270549714976</v>
+        <v>0.02495475311431688</v>
       </c>
       <c r="T6">
-        <v>0.02333578277931872</v>
+        <v>0.02399703738343172</v>
       </c>
       <c r="U6">
-        <v>0.02250267594888524</v>
+        <v>0.02319846298387504</v>
       </c>
       <c r="V6">
-        <v>0.02179696388528104</v>
+        <v>0.02252817696781337</v>
       </c>
       <c r="W6">
-        <v>0.02119473191242511</v>
+        <v>0.02196217398103941</v>
       </c>
       <c r="X6">
-        <v>0.02067719348769675</v>
+        <v>0.02148157192563303</v>
       </c>
       <c r="Y6">
-        <v>0.0202294483445242</v>
+        <v>0.02107137275864086</v>
       </c>
       <c r="Z6">
-        <v>0.01983957681221835</v>
+        <v>0.02071955887529369</v>
       </c>
       <c r="AA6">
-        <v>0.01949797028017596</v>
+        <v>0.02041642517821082</v>
       </c>
       <c r="AB6">
-        <v>0.01919682992969707</v>
+        <v>0.02015407904955777</v>
       </c>
       <c r="AC6">
-        <v>0.01892978699483508</v>
+        <v>0.01992606155574281</v>
       </c>
       <c r="AD6">
-        <v>0.01869161192120302</v>
+        <v>0.01972705730545074</v>
       </c>
       <c r="AE6">
-        <v>0.01847798934137302</v>
+        <v>0.01955266992089039</v>
       </c>
       <c r="AF6">
-        <v>0.01828534233662858</v>
+        <v>0.01939924662603891</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1009,91 +1009,91 @@
         <v>0.8942357844094723</v>
       </c>
       <c r="D7">
-        <v>0.827835918341987</v>
+        <v>0.8308719319842259</v>
       </c>
       <c r="E7">
-        <v>0.7589442711956236</v>
+        <v>0.767100328080369</v>
       </c>
       <c r="F7">
-        <v>0.6904949105906669</v>
+        <v>0.7050151721117285</v>
       </c>
       <c r="G7">
-        <v>0.6245433085262737</v>
+        <v>0.6459924524274238</v>
       </c>
       <c r="H7">
-        <v>0.5624184713452125</v>
+        <v>0.5908503212864848</v>
       </c>
       <c r="I7">
-        <v>0.5048828651873593</v>
+        <v>0.5399942458575238</v>
       </c>
       <c r="J7">
-        <v>0.4522789384797769</v>
+        <v>0.4935381307554279</v>
       </c>
       <c r="K7">
-        <v>0.4046526989639647</v>
+        <v>0.4513998323108411</v>
       </c>
       <c r="L7">
-        <v>0.3618520443299946</v>
+        <v>0.4133732500381886</v>
       </c>
       <c r="M7">
-        <v>0.3236015083005864</v>
+        <v>0.3791807452916531</v>
       </c>
       <c r="N7">
-        <v>0.2895568726852077</v>
+        <v>0.3485099400489739</v>
       </c>
       <c r="O7">
-        <v>0.2593435811634884</v>
+        <v>0.3210386150729753</v>
       </c>
       <c r="P7">
-        <v>0.2325826791786119</v>
+        <v>0.2964508354935846</v>
       </c>
       <c r="Q7">
-        <v>0.2089074814487021</v>
+        <v>0.2744467925609597</v>
       </c>
       <c r="R7">
-        <v>0.1879735578773641</v>
+        <v>0.2547482652803899</v>
       </c>
       <c r="S7">
-        <v>0.1694640468021329</v>
+        <v>0.2371011147591352</v>
       </c>
       <c r="T7">
-        <v>0.1530918029212455</v>
+        <v>0.221275833920701</v>
       </c>
       <c r="U7">
-        <v>0.1385994803394937</v>
+        <v>0.2070668765388465</v>
       </c>
       <c r="V7">
-        <v>0.1257583346010335</v>
+        <v>0.1942912672028214</v>
       </c>
       <c r="W7">
-        <v>0.1143662888478644</v>
+        <v>0.1827868319983252</v>
       </c>
       <c r="X7">
-        <v>0.1042456336608345</v>
+        <v>0.1724102741363455</v>
       </c>
       <c r="Y7">
-        <v>0.09524060373773978</v>
+        <v>0.1630352376792985</v>
       </c>
       <c r="Z7">
-        <v>0.08721498533749754</v>
+        <v>0.1545504465866045</v>
       </c>
       <c r="AA7">
-        <v>0.0800498466510333</v>
+        <v>0.1468579684245143</v>
       </c>
       <c r="AB7">
-        <v>0.07364144138311267</v>
+        <v>0.1398716269684971</v>
       </c>
       <c r="AC7">
-        <v>0.06789930812178478</v>
+        <v>0.133515571707208</v>
       </c>
       <c r="AD7">
-        <v>0.06274457029740692</v>
+        <v>0.1277230021553648</v>
       </c>
       <c r="AE7">
-        <v>0.05810843061101779</v>
+        <v>0.1224350389248365</v>
       </c>
       <c r="AF7">
-        <v>0.05393084753558167</v>
+        <v>0.1175997303033172</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1107,91 +1107,91 @@
         <v>0.4920265379592854</v>
       </c>
       <c r="D8">
-        <v>0.391672026506932</v>
+        <v>0.3927593964963408</v>
       </c>
       <c r="E8">
-        <v>0.3174746328947562</v>
+        <v>0.3200551312307742</v>
       </c>
       <c r="F8">
-        <v>0.2614449802854525</v>
+        <v>0.2655981785001138</v>
       </c>
       <c r="G8">
-        <v>0.2183270696348962</v>
+        <v>0.2239823638248493</v>
       </c>
       <c r="H8">
-        <v>0.1845781389090003</v>
+        <v>0.1916023360342824</v>
       </c>
       <c r="I8">
-        <v>0.1577569110947327</v>
+        <v>0.1659974650353254</v>
       </c>
       <c r="J8">
-        <v>0.1361469044045336</v>
+        <v>0.1454526553230083</v>
       </c>
       <c r="K8">
-        <v>0.1185187965610726</v>
+        <v>0.128749256722149</v>
       </c>
       <c r="L8">
-        <v>0.1039771423144519</v>
+        <v>0.1150059893556766</v>
       </c>
       <c r="M8">
-        <v>0.09185945900188953</v>
+        <v>0.103575165116073</v>
       </c>
       <c r="N8">
-        <v>0.08166852433201759</v>
+        <v>0.09397364030077396</v>
       </c>
       <c r="O8">
-        <v>0.07302615723626549</v>
+        <v>0.08583603447547339</v>
       </c>
       <c r="P8">
-        <v>0.06564115113468201</v>
+        <v>0.0788824979989408</v>
       </c>
       <c r="Q8">
-        <v>0.05928668988745295</v>
+        <v>0.07289615465979091</v>
       </c>
       <c r="R8">
-        <v>0.05378421856215366</v>
+        <v>0.06770708479072593</v>
       </c>
       <c r="S8">
-        <v>0.04899177303953475</v>
+        <v>0.06318079787503603</v>
       </c>
       <c r="T8">
-        <v>0.04479543226257402</v>
+        <v>0.05920983106984917</v>
       </c>
       <c r="U8">
-        <v>0.04110298563124608</v>
+        <v>0.05570755343473533</v>
       </c>
       <c r="V8">
-        <v>0.0378391908234299</v>
+        <v>0.05260354610221396</v>
       </c>
       <c r="W8">
-        <v>0.03494218650397718</v>
+        <v>0.04984012170020142</v>
       </c>
       <c r="X8">
-        <v>0.03236075264043541</v>
+        <v>0.04736967645576709</v>
       </c>
       <c r="Y8">
-        <v>0.03005219918889364</v>
+        <v>0.04515265724272569</v>
       </c>
       <c r="Z8">
-        <v>0.02798072506950217</v>
+        <v>0.04315598722586719</v>
       </c>
       <c r="AA8">
-        <v>0.02611613230430257</v>
+        <v>0.04135183667044049</v>
       </c>
       <c r="AB8">
-        <v>0.02443281067606946</v>
+        <v>0.03971665581417505</v>
       </c>
       <c r="AC8">
-        <v>0.02290893012004497</v>
+        <v>0.03823040835385825</v>
       </c>
       <c r="AD8">
-        <v>0.02152579387321158</v>
+        <v>0.03687595971125807</v>
       </c>
       <c r="AE8">
-        <v>0.02026731695018697</v>
+        <v>0.03563858560416794</v>
       </c>
       <c r="AF8">
-        <v>0.01911960301481505</v>
+        <v>0.0345055747881902</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1202,94 +1202,94 @@
         <v>0.4895249003151677</v>
       </c>
       <c r="C9">
-        <v>0.3533422012297991</v>
+        <v>0.3533422012297992</v>
       </c>
       <c r="D9">
-        <v>0.2672300863313041</v>
+        <v>0.2673293530605486</v>
       </c>
       <c r="E9">
-        <v>0.2102969519858425</v>
+        <v>0.2105251380158065</v>
       </c>
       <c r="F9">
-        <v>0.1711897994778906</v>
+        <v>0.1715516231508869</v>
       </c>
       <c r="G9">
-        <v>0.1434309228540284</v>
+        <v>0.1439231376419491</v>
       </c>
       <c r="H9">
-        <v>0.123161850006854</v>
+        <v>0.1237796232964098</v>
       </c>
       <c r="I9">
-        <v>0.107994973947194</v>
+        <v>0.1087341284000066</v>
       </c>
       <c r="J9">
-        <v>0.09640191382236615</v>
+        <v>0.09725954994278754</v>
       </c>
       <c r="K9">
-        <v>0.08737425933825821</v>
+        <v>0.08834876517733226</v>
       </c>
       <c r="L9">
-        <v>0.0802284119456797</v>
+        <v>0.08131926498873156</v>
       </c>
       <c r="M9">
-        <v>0.07448956709071183</v>
+        <v>0.07569708914371989</v>
       </c>
       <c r="N9">
-        <v>0.06982066129617981</v>
+        <v>0.07114578678460171</v>
       </c>
       <c r="O9">
-        <v>0.06597766481570876</v>
+        <v>0.06742174182738228</v>
       </c>
       <c r="P9">
-        <v>0.06278074915044346</v>
+        <v>0.06434537625156875</v>
       </c>
       <c r="Q9">
-        <v>0.0600952681139583</v>
+        <v>0.06178216401712058</v>
       </c>
       <c r="R9">
-        <v>0.05781894939099737</v>
+        <v>0.05962985084875291</v>
       </c>
       <c r="S9">
-        <v>0.05587310206024407</v>
+        <v>0.05780968530332058</v>
       </c>
       <c r="T9">
-        <v>0.05419647318748706</v>
+        <v>0.05626029473515044</v>
       </c>
       <c r="U9">
-        <v>0.05274088433378962</v>
+        <v>0.05493333763578059</v>
       </c>
       <c r="V9">
-        <v>0.05146808465462732</v>
+        <v>0.05379036961674874</v>
       </c>
       <c r="W9">
-        <v>0.05034744895195018</v>
+        <v>0.05280055190355346</v>
       </c>
       <c r="X9">
-        <v>0.04935427141854321</v>
+        <v>0.05193895349731244</v>
       </c>
       <c r="Y9">
-        <v>0.04846848529288625</v>
+        <v>0.05118527756280407</v>
       </c>
       <c r="Z9">
-        <v>0.04767369109141278</v>
+        <v>0.05052289498867811</v>
       </c>
       <c r="AA9">
-        <v>0.0469564112167291</v>
+        <v>0.04993810314907045</v>
       </c>
       <c r="AB9">
-        <v>0.04630551260426839</v>
+        <v>0.04941955172213312</v>
       </c>
       <c r="AC9">
-        <v>0.04571175549501373</v>
+        <v>0.04895779381640932</v>
       </c>
       <c r="AD9">
-        <v>0.04516743786894691</v>
+        <v>0.04854493207900649</v>
       </c>
       <c r="AE9">
-        <v>0.04466611314661614</v>
+        <v>0.04817433751240916</v>
       </c>
       <c r="AF9">
-        <v>0.04420236452405274</v>
+        <v>0.04784042446780672</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1300,94 +1300,94 @@
         <v>1.142341997113088</v>
       </c>
       <c r="C10">
-        <v>0.8084302649704127</v>
+        <v>0.8084302649704129</v>
       </c>
       <c r="D10">
-        <v>0.6048834107281488</v>
+        <v>0.6044982738395506</v>
       </c>
       <c r="E10">
-        <v>0.4744672940090232</v>
+        <v>0.4735857031329173</v>
       </c>
       <c r="F10">
-        <v>0.387366682809837</v>
+        <v>0.3859666415800525</v>
       </c>
       <c r="G10">
-        <v>0.3271640465154267</v>
+        <v>0.3252475756825315</v>
       </c>
       <c r="H10">
-        <v>0.2843686135397186</v>
+        <v>0.2819390414151734</v>
       </c>
       <c r="I10">
-        <v>0.2532535472515832</v>
+        <v>0.2503083688635664</v>
       </c>
       <c r="J10">
-        <v>0.2302293973577186</v>
+        <v>0.2267588069376373</v>
       </c>
       <c r="K10">
-        <v>0.2129689067600045</v>
+        <v>0.2089562996665816</v>
       </c>
       <c r="L10">
-        <v>0.1999166909436677</v>
+        <v>0.1953397458735898</v>
       </c>
       <c r="M10">
-        <v>0.1900044181217626</v>
+        <v>0.1848362539892178</v>
       </c>
       <c r="N10">
-        <v>0.1824798923181948</v>
+        <v>0.1766901326401835</v>
       </c>
       <c r="O10">
-        <v>0.176801435585319</v>
+        <v>0.1703571399040493</v>
       </c>
       <c r="P10">
-        <v>0.1725708666134969</v>
+        <v>0.1654373325026121</v>
       </c>
       <c r="Q10">
-        <v>0.1694899339804723</v>
+        <v>0.1616313854918218</v>
       </c>
       <c r="R10">
-        <v>0.1673313666670917</v>
+        <v>0.1587115459493756</v>
       </c>
       <c r="S10">
-        <v>0.1659192461579448</v>
+        <v>0.1565019223814571</v>
       </c>
       <c r="T10">
-        <v>0.1651154491938418</v>
+        <v>0.1548648558318066</v>
       </c>
       <c r="U10">
-        <v>0.164810120794418</v>
+        <v>0.15369132972373</v>
       </c>
       <c r="V10">
-        <v>0.1649148706526989</v>
+        <v>0.1528941096479995</v>
       </c>
       <c r="W10">
-        <v>0.1653578400393175</v>
+        <v>0.1524027589691201</v>
       </c>
       <c r="X10">
-        <v>0.1660800730203803</v>
+        <v>0.1521599632618163</v>
       </c>
       <c r="Y10">
-        <v>0.1670328101237493</v>
+        <v>0.152118781244576</v>
       </c>
       <c r="Z10">
-        <v>0.1681754431329597</v>
+        <v>0.1522405606238586</v>
       </c>
       <c r="AA10">
-        <v>0.1694739497559405</v>
+        <v>0.1524933374423596</v>
       </c>
       <c r="AB10">
-        <v>0.1708996808673195</v>
+        <v>0.1528505915257559</v>
       </c>
       <c r="AC10">
-        <v>0.1724284098610499</v>
+        <v>0.153290267469842</v>
       </c>
       <c r="AD10">
-        <v>0.1740395791116666</v>
+        <v>0.1537939960580538</v>
       </c>
       <c r="AE10">
-        <v>0.1757156963405134</v>
+        <v>0.1543464687729463</v>
       </c>
       <c r="AF10">
-        <v>0.1774418462553235</v>
+        <v>0.1549349306098733</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1395,97 +1395,97 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4482735300492182</v>
+        <v>0.4482735300492183</v>
       </c>
       <c r="C11">
-        <v>0.4042959484233927</v>
+        <v>0.4042959484233925</v>
       </c>
       <c r="D11">
-        <v>0.3701180574355095</v>
+        <v>0.3701524272659599</v>
       </c>
       <c r="E11">
-        <v>0.3431628928747497</v>
+        <v>0.343255952007939</v>
       </c>
       <c r="F11">
-        <v>0.3216315877776877</v>
+        <v>0.3218014172694784</v>
       </c>
       <c r="G11">
-        <v>0.3042408165672018</v>
+        <v>0.3045015222315222</v>
       </c>
       <c r="H11">
-        <v>0.2900569219724521</v>
+        <v>0.2904200001451877</v>
       </c>
       <c r="I11">
-        <v>0.2783885333803179</v>
+        <v>0.2788637051238103</v>
       </c>
       <c r="J11">
-        <v>0.2687154799517519</v>
+        <v>0.2693112046041398</v>
       </c>
       <c r="K11">
-        <v>0.2606407539992464</v>
+        <v>0.2613645465421047</v>
       </c>
       <c r="L11">
-        <v>0.2538574287535283</v>
+        <v>0.2547160560160867</v>
       </c>
       <c r="M11">
-        <v>0.2481254707961746</v>
+        <v>0.2491250725373945</v>
       </c>
       <c r="N11">
-        <v>0.243255219634615</v>
+        <v>0.2444013831869548</v>
       </c>
       <c r="O11">
-        <v>0.2390954363671728</v>
+        <v>0.2403932429139417</v>
       </c>
       <c r="P11">
-        <v>0.2355245335131044</v>
+        <v>0.2369785874615135</v>
       </c>
       <c r="Q11">
-        <v>0.2324440527844679</v>
+        <v>0.2340585015111417</v>
       </c>
       <c r="R11">
-        <v>0.2297737537025979</v>
+        <v>0.231552302261313</v>
       </c>
       <c r="S11">
-        <v>0.227447871878212</v>
+        <v>0.2293937955163685</v>
       </c>
       <c r="T11">
-        <v>0.2254122373107603</v>
+        <v>0.2275283935029157</v>
       </c>
       <c r="U11">
-        <v>0.2236220325978736</v>
+        <v>0.2259108735607119</v>
       </c>
       <c r="V11">
-        <v>0.2220400326836285</v>
+        <v>0.2245036188531886</v>
       </c>
       <c r="W11">
-        <v>0.2206352108672784</v>
+        <v>0.2232752255096097</v>
       </c>
       <c r="X11">
-        <v>0.2193816262232191</v>
+        <v>0.2221993911569054</v>
       </c>
       <c r="Y11">
-        <v>0.2182575293087282</v>
+        <v>0.2212540216038219</v>
       </c>
       <c r="Z11">
-        <v>0.2172446387134042</v>
+        <v>0.2204205081703758</v>
       </c>
       <c r="AA11">
-        <v>0.2163275524337128</v>
+        <v>0.2196831396202767</v>
       </c>
       <c r="AB11">
-        <v>0.2154932664718878</v>
+        <v>0.2190286210927418</v>
       </c>
       <c r="AC11">
-        <v>0.2147307793154882</v>
+        <v>0.2184456787015434</v>
       </c>
       <c r="AD11">
-        <v>0.2140307656499381</v>
+        <v>0.2179247331736199</v>
       </c>
       <c r="AE11">
-        <v>0.2133853062132953</v>
+        <v>0.2174576294608637</v>
       </c>
       <c r="AF11">
-        <v>0.2127876634206919</v>
+        <v>0.2170374119785166</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1493,97 +1493,97 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4920378988480285</v>
+        <v>0.4920378988480286</v>
       </c>
       <c r="C12">
-        <v>0.40476855003016</v>
+        <v>0.4047685500301601</v>
       </c>
       <c r="D12">
-        <v>0.3414817112139356</v>
+        <v>0.3417132588407152</v>
       </c>
       <c r="E12">
-        <v>0.2943680938175288</v>
+        <v>0.294951309428903</v>
       </c>
       <c r="F12">
-        <v>0.258478026882475</v>
+        <v>0.2594759777912565</v>
       </c>
       <c r="G12">
-        <v>0.2305762371445973</v>
+        <v>0.2320224382514975</v>
       </c>
       <c r="H12">
-        <v>0.208489000082741</v>
+        <v>0.210401588666323</v>
       </c>
       <c r="I12">
-        <v>0.1907193179386764</v>
+        <v>0.1931084403137513</v>
       </c>
       <c r="J12">
-        <v>0.1762131136123324</v>
+        <v>0.1790847790620932</v>
       </c>
       <c r="K12">
-        <v>0.1642132152981065</v>
+        <v>0.1675712831338724</v>
       </c>
       <c r="L12">
-        <v>0.1541658517573297</v>
+        <v>0.1580130240137644</v>
       </c>
       <c r="M12">
-        <v>0.1456593844415286</v>
+        <v>0.149997669957842</v>
       </c>
       <c r="N12">
-        <v>0.1383833082285001</v>
+        <v>0.1432142102788831</v>
       </c>
       <c r="O12">
-        <v>0.1321002787230817</v>
+        <v>0.1374248438362838</v>
       </c>
       <c r="P12">
-        <v>0.1266266830182614</v>
+        <v>0.1324454861167304</v>
       </c>
       <c r="Q12">
-        <v>0.1218189197477256</v>
+        <v>0.1281320261265255</v>
       </c>
       <c r="R12">
-        <v>0.1175635614754686</v>
+        <v>0.1243704867870099</v>
       </c>
       <c r="S12">
-        <v>0.1137702002434376</v>
+        <v>0.1210698787871471</v>
       </c>
       <c r="T12">
-        <v>0.1103661757804474</v>
+        <v>0.1181569413223443</v>
       </c>
       <c r="U12">
-        <v>0.1072926435253697</v>
+        <v>0.1155722235378899</v>
       </c>
       <c r="V12">
-        <v>0.1045016088605286</v>
+        <v>0.113267131317372</v>
       </c>
       <c r="W12">
-        <v>0.1019536668319779</v>
+        <v>0.1112016778499912</v>
       </c>
       <c r="X12">
-        <v>0.09961626300928773</v>
+        <v>0.1093427533114525</v>
       </c>
       <c r="Y12">
-        <v>0.09746234351722191</v>
+        <v>0.1076627816689679</v>
       </c>
       <c r="Z12">
-        <v>0.09546929865657658</v>
+        <v>0.1061386691658348</v>
       </c>
       <c r="AA12">
-        <v>0.09361813011400728</v>
+        <v>0.104750974702373</v>
       </c>
       <c r="AB12">
-        <v>0.09189278995659761</v>
+        <v>0.1034832505562923</v>
       </c>
       <c r="AC12">
-        <v>0.09027965269198691</v>
+        <v>0.102321514972607</v>
       </c>
       <c r="AD12">
-        <v>0.08876709118377733</v>
+        <v>0.1012538276480358</v>
       </c>
       <c r="AE12">
-        <v>0.08734513419153844</v>
+        <v>0.1002699460919258</v>
       </c>
       <c r="AF12">
-        <v>0.08600518847694001</v>
+        <v>0.09936104599177852</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1594,94 +1594,94 @@
         <v>0.5528235542392856</v>
       </c>
       <c r="C13">
-        <v>0.4784334037231905</v>
+        <v>0.478433403723191</v>
       </c>
       <c r="D13">
-        <v>0.4143109670994058</v>
+        <v>0.4157675199516705</v>
       </c>
       <c r="E13">
-        <v>0.3591990600688673</v>
+        <v>0.3628988980220568</v>
       </c>
       <c r="F13">
-        <v>0.3119164785480165</v>
+        <v>0.318201954135821</v>
       </c>
       <c r="G13">
-        <v>0.2713874666862825</v>
+        <v>0.280316527245934</v>
       </c>
       <c r="H13">
-        <v>0.2366533899592929</v>
+        <v>0.2481107731501637</v>
       </c>
       <c r="I13">
-        <v>0.2068732325626966</v>
+        <v>0.2206461179459031</v>
       </c>
       <c r="J13">
-        <v>0.1813175295238166</v>
+        <v>0.1971457792189911</v>
       </c>
       <c r="K13">
-        <v>0.1593588324326333</v>
+        <v>0.1769673775564221</v>
       </c>
       <c r="L13">
-        <v>0.1404607152254894</v>
+        <v>0.1595796081156699</v>
       </c>
       <c r="M13">
-        <v>0.1241665625896752</v>
+        <v>0.1445426584616493</v>
       </c>
       <c r="N13">
-        <v>0.1100888651842312</v>
+        <v>0.1314919368560482</v>
       </c>
       <c r="O13">
-        <v>0.0978994044055576</v>
+        <v>0.1201246456378119</v>
       </c>
       <c r="P13">
-        <v>0.08732049177351484</v>
+        <v>0.1101887543427688</v>
       </c>
       <c r="Q13">
-        <v>0.0781172948219209</v>
+        <v>0.1014739708868604</v>
       </c>
       <c r="R13">
-        <v>0.07009120440321111</v>
+        <v>0.0938043614432502</v>
       </c>
       <c r="S13">
-        <v>0.06307415780721025</v>
+        <v>0.08703232228453203</v>
       </c>
       <c r="T13">
-        <v>0.05692381453760659</v>
+        <v>0.08103365562687541</v>
       </c>
       <c r="U13">
-        <v>0.05151947793575225</v>
+        <v>0.07570354458960497</v>
       </c>
       <c r="V13">
-        <v>0.04675866015274856</v>
+        <v>0.07095325930701339</v>
       </c>
       <c r="W13">
-        <v>0.04255419644257431</v>
+        <v>0.06670745724763477</v>
       </c>
       <c r="X13">
-        <v>0.03883182501064874</v>
+        <v>0.06290196649468724</v>
       </c>
       <c r="Y13">
-        <v>0.03552815928093244</v>
+        <v>0.05948196182617413</v>
       </c>
       <c r="Z13">
-        <v>0.03258898963252035</v>
+        <v>0.05640046061484606</v>
       </c>
       <c r="AA13">
-        <v>0.02996786098596029</v>
+        <v>0.05361707950342435</v>
       </c>
       <c r="AB13">
-        <v>0.02762488091356718</v>
+        <v>0.05109700407698566</v>
       </c>
       <c r="AC13">
-        <v>0.02552572017356313</v>
+        <v>0.04881013284537913</v>
       </c>
       <c r="AD13">
-        <v>0.02364077377242869</v>
+        <v>0.04673036417639246</v>
       </c>
       <c r="AE13">
-        <v>0.02194445593205994</v>
+        <v>0.04483500072509328</v>
       </c>
       <c r="AF13">
-        <v>0.02041460678382544</v>
+        <v>0.04310425066386463</v>
       </c>
     </row>
   </sheetData>
